--- a/tavolashop/categories/Tavola's categories.xlsx
+++ b/tavolashop/categories/Tavola's categories.xlsx
@@ -1,744 +1,798 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="227">
-  <si>
-    <t>cat3</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>اواني القلي وقلايات التشويح</t>
-  </si>
-  <si>
-    <t>29,43468,34,113,43870,42725,43888</t>
-  </si>
-  <si>
-    <t>اطقم اواني الطبخ</t>
-  </si>
-  <si>
-    <t>29,43468,31</t>
-  </si>
-  <si>
-    <t>صواني ومقالي شواء</t>
-  </si>
-  <si>
-    <t>29,43468,43520,113</t>
-  </si>
-  <si>
-    <t>قدور الصوص</t>
-  </si>
-  <si>
-    <t>29,43468,32</t>
-  </si>
-  <si>
-    <t>مقالي الووك</t>
-  </si>
-  <si>
-    <t>قدور مرق وقدور باستا</t>
-  </si>
-  <si>
-    <t>كسرولات وقدور الطبخ البطيء</t>
-  </si>
-  <si>
-    <t>أوعية حليب وغلايات مزدوجة</t>
-  </si>
-  <si>
-    <t>اواني الفرن</t>
-  </si>
-  <si>
-    <t>صواني التحمير</t>
-  </si>
-  <si>
-    <t>قدور الضغط</t>
-  </si>
-  <si>
-    <t>اطقم فوندو وشوايات راكليت</t>
-  </si>
-  <si>
-    <t>29,30,43810</t>
-  </si>
-  <si>
-    <t>اواني للميكرويف</t>
-  </si>
-  <si>
-    <t>قدور بخارية وقدور السلق</t>
-  </si>
-  <si>
-    <t>قدور طاجن وقدور باييلا</t>
-  </si>
-  <si>
-    <t>عصارات كهربائية</t>
-  </si>
-  <si>
-    <t>43870,42725,43891</t>
-  </si>
-  <si>
-    <t>خلاطات كهربائية</t>
-  </si>
-  <si>
-    <t>43870,42725,43890</t>
-  </si>
-  <si>
-    <t>عجانات وملحقات</t>
-  </si>
-  <si>
-    <t>43870,42725,43889,113</t>
-  </si>
-  <si>
-    <t>محضرات طعام</t>
-  </si>
-  <si>
-    <t>43870,42725,43894</t>
-  </si>
-  <si>
-    <t>خلاطات يدوية</t>
-  </si>
-  <si>
-    <t>43870,42725,43895</t>
-  </si>
-  <si>
-    <t>حماصات توست</t>
-  </si>
-  <si>
-    <t>43870,42725,43897</t>
-  </si>
-  <si>
-    <t>انستانت بوت</t>
-  </si>
-  <si>
-    <t>43870,42725,43900,113</t>
-  </si>
-  <si>
-    <t>محضرات قهوة ومطاحن</t>
-  </si>
-  <si>
-    <t>43870,42725,33,113</t>
-  </si>
-  <si>
-    <t>غلايات ماء</t>
-  </si>
-  <si>
-    <t>مجففات طعام</t>
-  </si>
-  <si>
-    <t>43870,42725,43900</t>
-  </si>
-  <si>
-    <t>صانعات لبن الزبادي والجبنة</t>
-  </si>
-  <si>
-    <t>صانعات كريب ووافل</t>
-  </si>
-  <si>
-    <t>صانعات الآيسكريم</t>
-  </si>
-  <si>
-    <t>صانعات الكب كيك</t>
-  </si>
-  <si>
-    <t>شوايات راكليت</t>
-  </si>
-  <si>
-    <t>أطقم السكاكين</t>
-  </si>
-  <si>
-    <t>29,30,43809</t>
-  </si>
-  <si>
-    <t>سكاكين الشيف</t>
-  </si>
-  <si>
-    <t>سكاكين التقشير</t>
-  </si>
-  <si>
-    <t>سكاكين متعددة الاستخدامات</t>
-  </si>
-  <si>
-    <t>سكاكين التشريح والنحت</t>
-  </si>
-  <si>
-    <t>السواطير وسكاكين نزع العظام</t>
-  </si>
-  <si>
-    <t>سكاكين الخبز</t>
-  </si>
-  <si>
-    <t>سكاكين الستيك</t>
-  </si>
-  <si>
-    <t>سكاكين خاصة</t>
-  </si>
-  <si>
-    <t>سكاكين سانتوكو</t>
-  </si>
-  <si>
-    <t>حفظ السكاكين</t>
-  </si>
-  <si>
-    <t>مسنات السكاكين</t>
-  </si>
-  <si>
-    <t>ألواح تقطيع</t>
-  </si>
-  <si>
-    <t>29,30,43808</t>
-  </si>
-  <si>
-    <t>مقصات مطبخ وطعام</t>
-  </si>
-  <si>
-    <t>أطقم ملاعق طبخ</t>
-  </si>
-  <si>
-    <t>سباتولات وملاعق تقليب</t>
-  </si>
-  <si>
-    <t>ملاعق كبيرة ومغارف</t>
-  </si>
-  <si>
-    <t>مضارب وفراشي</t>
-  </si>
-  <si>
-    <t>قطاعات خضار وفواكه لشرائح</t>
-  </si>
-  <si>
-    <t>قطاعات شرائح حلزونية وحفارات خضار</t>
-  </si>
-  <si>
-    <t>مباشر جبن وقشر الحامض</t>
-  </si>
-  <si>
-    <t>قشارات خضار وفواكه</t>
-  </si>
-  <si>
-    <t>زبديات خلط</t>
-  </si>
-  <si>
-    <t>ملاعق وأكواب معيارية</t>
-  </si>
-  <si>
-    <t>ملاقط وشوك</t>
-  </si>
-  <si>
-    <t>موازين مطبخ</t>
-  </si>
-  <si>
-    <t>مؤقتات مطبخ ومقاييس حرارة</t>
-  </si>
-  <si>
-    <t>فتاحات برطمانات وعلب معدنية</t>
-  </si>
-  <si>
-    <t>ادوات سلطة</t>
-  </si>
-  <si>
-    <t>ادوات ثوم وورقيات</t>
-  </si>
-  <si>
-    <t>ادوات فواكه وحمضيات</t>
-  </si>
-  <si>
-    <t>ادوات لحوم ودواجن</t>
-  </si>
-  <si>
-    <t>بياضات المطبخ</t>
-  </si>
-  <si>
-    <t>ادوات دقيق</t>
-  </si>
-  <si>
-    <t>ادوات بيتزا وباستا</t>
-  </si>
-  <si>
-    <t>ادوات شوي وباربيكيو</t>
-  </si>
-  <si>
-    <t>شعلة مطبخ</t>
-  </si>
-  <si>
-    <t>ادوات بيض</t>
-  </si>
-  <si>
-    <t>مطاحن فلفل وملح</t>
-  </si>
-  <si>
-    <t>29,14553,43813</t>
-  </si>
-  <si>
-    <t>مرشات وموزعات توابل ومكسرات</t>
-  </si>
-  <si>
-    <t>قناني زيت وخل</t>
-  </si>
-  <si>
-    <t>أطقم هاون ومدقة</t>
-  </si>
-  <si>
-    <t>برطمانات وعلب توضيب طعام</t>
-  </si>
-  <si>
-    <t>29,14553,43052</t>
-  </si>
-  <si>
-    <t>أغطية حفظ طعام</t>
-  </si>
-  <si>
-    <t>علب حفظ خبز</t>
-  </si>
-  <si>
-    <t>حاملة ادوات طبخ</t>
-  </si>
-  <si>
-    <t>أباريق ماء وأباريق بفلتر</t>
-  </si>
-  <si>
-    <t>42915,42918,42977</t>
-  </si>
-  <si>
-    <t>صانعات مشروبات غازية</t>
-  </si>
-  <si>
-    <t>قوالب مكعبات ثلج</t>
-  </si>
-  <si>
-    <t>قوالب الكيك</t>
-  </si>
-  <si>
-    <t>29,43468,43520</t>
-  </si>
-  <si>
-    <t>قوالب مفتوحة من الوسط</t>
-  </si>
-  <si>
-    <t>قوالب التشيزكيك والكيك المتحركة</t>
-  </si>
-  <si>
-    <t>قوالب وصواني البيتزا والفطائر والتارت</t>
-  </si>
-  <si>
-    <t>قوالب وأواني الخُبز</t>
-  </si>
-  <si>
-    <t>قوالب الكب كيك والمافن</t>
-  </si>
-  <si>
-    <t>قوالب متعددة الفجوات</t>
-  </si>
-  <si>
-    <t>قوالب حلى القهوة</t>
-  </si>
-  <si>
-    <t>قوالب الخبز وصواني الكوكيز</t>
-  </si>
-  <si>
-    <t>قوالب البان كيك والوافل</t>
-  </si>
-  <si>
-    <t>أطقم أواني الخبز</t>
-  </si>
-  <si>
-    <t>أدوات خبز وتحضير العجين</t>
-  </si>
-  <si>
-    <t>أكواب وأوراق الخبز</t>
-  </si>
-  <si>
-    <t>أدوات الوزن والقياس</t>
-  </si>
-  <si>
-    <t>29,30,42729</t>
-  </si>
-  <si>
-    <t>قطاعات واكسسوارات الكوكيز</t>
-  </si>
-  <si>
-    <t>رفوف تبريد</t>
-  </si>
-  <si>
-    <t>فرادات وحصائر العجين</t>
-  </si>
-  <si>
-    <t>حاملات الكيك والكب كيك</t>
-  </si>
-  <si>
-    <t>29,14553,43814</t>
-  </si>
-  <si>
-    <t>علب الكيك والكب كيك</t>
-  </si>
-  <si>
-    <t>علب الكوكيز</t>
-  </si>
-  <si>
-    <t>علب وأوراق تغليف الحلوى</t>
-  </si>
-  <si>
-    <t>أكياس وعلب الحلوى</t>
-  </si>
-  <si>
-    <t>حاملات وعلب توضيب الكيك</t>
-  </si>
-  <si>
-    <t>أقماع واكسسوارات التزيين</t>
-  </si>
-  <si>
-    <t>أدوات التزيين وقاعدات الكيك الدوارة</t>
-  </si>
-  <si>
-    <t>أكياس التزيين، مثبتات وأغطية الأقماع</t>
-  </si>
-  <si>
-    <t>أطقم أدوات التزيين</t>
-  </si>
-  <si>
-    <t>أدوات فوندان وعجينة السكر الصلبة</t>
-  </si>
-  <si>
-    <t>أدوات صنع الورود من عجينة السكر</t>
-  </si>
-  <si>
-    <t>قوالب تشكيل</t>
-  </si>
-  <si>
-    <t>فرادات، حصائر وألواح نقش</t>
-  </si>
-  <si>
-    <t>قطاعات عجينة السكر</t>
-  </si>
-  <si>
-    <t>قاعدات الكيك ومجسمات وكيكات مزيفة</t>
-  </si>
-  <si>
-    <t>سبرنكلز</t>
-  </si>
-  <si>
-    <t>بودرة للتزيين</t>
-  </si>
-  <si>
-    <t>كريمة تزيين</t>
-  </si>
-  <si>
-    <t>فوندان وعجينة سكر</t>
-  </si>
-  <si>
-    <t>ألوان طعام للتزيين</t>
-  </si>
-  <si>
-    <t>خلطات الكيك</t>
-  </si>
-  <si>
-    <t>منكهات</t>
-  </si>
-  <si>
-    <t>جيل تزيين وتلميع</t>
-  </si>
-  <si>
-    <t>حلوى للتذويب</t>
-  </si>
-  <si>
-    <t>رذاذات مانعة للالتصاق ورذاذات التلوين</t>
-  </si>
-  <si>
-    <t>صانعات القهوة بالضغط الفرنسية</t>
-  </si>
-  <si>
-    <t>صانعات موكا</t>
-  </si>
-  <si>
-    <t>صانعات قهوة بالتفريغ</t>
-  </si>
-  <si>
-    <t>صانعات قهوة بالتنقيط وفي60</t>
-  </si>
-  <si>
-    <t>صانعات القهوة الكهربائية</t>
-  </si>
-  <si>
-    <t>مطاحن القهوة</t>
-  </si>
-  <si>
-    <t>صانعات رغوة الحليب</t>
-  </si>
-  <si>
-    <t>غلايات بفوهة معقوفة</t>
-  </si>
-  <si>
-    <t>قطع غيار واكسسوارات للقهوة</t>
-  </si>
-  <si>
-    <t>59,64,65</t>
-  </si>
-  <si>
-    <t>ابريق تحضير شاي بالكبس</t>
-  </si>
-  <si>
-    <t>ابريق شاي</t>
-  </si>
-  <si>
-    <t>مصافي الشاي</t>
-  </si>
-  <si>
-    <t>43870,42725,43898,113</t>
-  </si>
-  <si>
-    <t>غلاية ماء</t>
-  </si>
-  <si>
-    <t>سخانات شاي</t>
-  </si>
-  <si>
-    <t>59,64,66,113</t>
-  </si>
-  <si>
-    <t>دلَات</t>
-  </si>
-  <si>
-    <t>59,42749,62,113</t>
-  </si>
-  <si>
-    <t>أكواب الشاي</t>
-  </si>
-  <si>
-    <t>فناجين اسبريسو</t>
-  </si>
-  <si>
-    <t>فناجين قهوة العربية</t>
-  </si>
-  <si>
-    <t>42915,42918</t>
-  </si>
-  <si>
-    <t>مجات و أكواب زجاجية</t>
-  </si>
-  <si>
-    <t>أطقم الشاي</t>
-  </si>
-  <si>
-    <t>42915,43458,42917</t>
-  </si>
-  <si>
-    <t>ملاعق قهوة و شاي</t>
-  </si>
-  <si>
-    <t>59,42745</t>
-  </si>
-  <si>
-    <t>أوعية تقديم السكر, العسل و الكريمة</t>
-  </si>
-  <si>
-    <t>صانعات قهوة بالكبس وأكواب حافظة للحرارة متنقلة</t>
-  </si>
-  <si>
-    <t>42915,43458,6718</t>
-  </si>
-  <si>
-    <t>أطقم أدوات المائدة</t>
-  </si>
-  <si>
-    <t>أطقم المائدة</t>
-  </si>
-  <si>
-    <t>42915,43458,43797</t>
-  </si>
-  <si>
-    <t>أدوات تقديم</t>
-  </si>
-  <si>
-    <t>42915,42916,43053</t>
-  </si>
-  <si>
-    <t>أطباق تقديم</t>
-  </si>
-  <si>
-    <t>42915,42918,42928,113</t>
-  </si>
-  <si>
-    <t>أدوات الشراب</t>
-  </si>
-  <si>
-    <t>42920,42935,113</t>
-  </si>
-  <si>
-    <t>إكسسوارات الطاولة</t>
-  </si>
-  <si>
-    <t>مفارش الصحون</t>
-  </si>
-  <si>
-    <t>مطاحن التوابل</t>
-  </si>
-  <si>
-    <t>42915,43458,42919,42924</t>
-  </si>
-  <si>
-    <t>صحون طعام</t>
-  </si>
-  <si>
-    <t>صحون جانبية</t>
-  </si>
-  <si>
-    <t>42915,43458,42919,42926</t>
-  </si>
-  <si>
-    <t>أوعية</t>
-  </si>
-  <si>
-    <t>42915,42916,43742,113</t>
-  </si>
-  <si>
-    <t>أوعية تقديم</t>
-  </si>
-  <si>
-    <t>42915,42916,42922,113</t>
-  </si>
-  <si>
-    <t>صحون حلى وحاملات كيك</t>
-  </si>
-  <si>
-    <t>42915,42916,42921,113</t>
-  </si>
-  <si>
-    <t>صواني</t>
-  </si>
-  <si>
-    <t>42915,42916,42931</t>
-  </si>
-  <si>
-    <t>ألواح الجبن</t>
-  </si>
-  <si>
-    <t>سلال تقديم</t>
-  </si>
-  <si>
-    <t>مفارش ومناديل مائدة</t>
-  </si>
-  <si>
-    <t>شوايات</t>
-  </si>
-  <si>
-    <t>سلال النزهات</t>
-  </si>
-  <si>
-    <t>حقائب التبريد</t>
-  </si>
-  <si>
-    <t>42,14489</t>
-  </si>
-  <si>
-    <t>مرايا استشعار</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="231">
+  <si>
+    <t xml:space="preserve">cat3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اواني القلي وقلايات التشويح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,43468,34,113,43870,42725,43888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اطقم اواني الطبخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,43468,31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صواني ومقالي شواء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,43468,43520,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قدور الصوص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,43468,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقالي الووك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قدور مرق وقدور باستا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كسرولات وقدور الطبخ البطيء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أوعية حليب وغلايات مزدوجة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اواني الفرن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صواني التحمير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قدور الضغط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اطقم فوندو وشوايات راكليت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,30,43810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اواني للميكرويف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قدور بخارية وقدور السلق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قدور طاجن وقدور باييلا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عصارات كهربائية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خلاطات كهربائية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عجانات وملحقات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43889,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محضرات طعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خلاطات يدوية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حماصات توست</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">انستانت بوت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43900,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">محضرات قهوة ومطاحن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,33,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غلايات ماء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجففات طعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات لبن الزبادي والجبنة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات كريب ووافل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات الآيسكريم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات الكب كيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوايات راكليت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطقم السكاكين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,30,43809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين الشيف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين التقشير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين متعددة الاستخدامات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين التشريح والنحت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السواطير وسكاكين نزع العظام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين الخبز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين الستيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين خاصة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين سانتوكو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حفظ السكاكين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مسنات السكاكين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ألواح تقطيع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,30,43808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مقصات مطبخ وطعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطقم ملاعق طبخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سباتولات وملاعق تقليب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملاعق كبيرة ومغارف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مضارب وفراشي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطاعات خضار وفواكه لشرائح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطاعات شرائح حلزونية وحفارات خضار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مباشر جبن وقشر الحامض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قشارات خضار وفواكه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زبديات خلط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملاعق وأكواب معيارية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملاقط وشوك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موازين مطبخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مؤقتات مطبخ ومقاييس حرارة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فتاحات برطمانات وعلب معدنية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادوات سلطة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادوات ثوم وورقيات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادوات فواكه وحمضيات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادوات لحوم ودواجن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بياضات المطبخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادوات دقيق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادوات بيتزا وباستا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادوات شوي وباربيكيو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شعلة مطبخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ادوات بيض</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطاحن فلفل وملح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,14553,43813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرشات وموزعات توابل ومكسرات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قناني زيت وخل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطقم هاون ومدقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برطمانات وعلب توضيب طعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,14553,43052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أغطية حفظ طعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علب حفظ خبز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حاملة ادوات طبخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أباريق ماء وأباريق بفلتر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,42918,42977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات مشروبات غازية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب مكعبات ثلج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب الكيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,43468,43520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب مفتوحة من الوسط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب التشيزكيك والكيك المتحركة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب وصواني البيتزا والفطائر والتارت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب وأواني الخُبز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب الكب كيك والمافن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب متعددة الفجوات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب حلى القهوة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب الخبز وصواني الكوكيز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب البان كيك والوافل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطقم أواني الخبز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات خبز وتحضير العجين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أكواب وأوراق الخبز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات الوزن والقياس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,30,42729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطاعات واكسسوارات الكوكيز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رفوف تبريد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرادات وحصائر العجين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حاملات الكيك والكب كيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,14553,43814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علب الكيك والكب كيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علب الكوكيز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علب وأوراق تغليف الحلوى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أكياس وعلب الحلوى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حاملات وعلب توضيب الكيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أقماع واكسسوارات التزيين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات التزيين وقاعدات الكيك الدوارة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أكياس التزيين، مثبتات وأغطية الأقماع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطقم أدوات التزيين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات فوندان وعجينة السكر الصلبة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات صنع الورود من عجينة السكر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قوالب تشكيل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرادات، حصائر وألواح نقش</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطاعات عجينة السكر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قاعدات الكيك ومجسمات وكيكات مزيفة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سبرنكلز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بودرة للتزيين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كريمة تزيين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فوندان وعجينة سكر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ألوان طعام للتزيين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خلطات الكيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منكهات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جيل تزيين وتلميع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حلوى للتذويب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رذاذات مانعة للالتصاق ورذاذات التلوين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات القهوة بالضغط الفرنسية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات موكا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات قهوة بالتفريغ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات قهوة بالتنقيط وفي60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات القهوة الكهربائية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطاحن القهوة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات رغوة الحليب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غلايات بفوهة معقوفة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قطع غيار واكسسوارات للقهوة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,64,65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابريق تحضير شاي بالكبس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابريق شاي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مصافي الشاي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43870,42725,43898,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غلاية ماء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سخانات شاي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,64,66,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دلَات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,42749,62,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أكواب الشاي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فناجين اسبريسو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فناجين قهوة العربية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,42918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجات و أكواب زجاجية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطقم الشاي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,43458,42917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملاعق قهوة و شاي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,42745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أوعية تقديم السكر, العسل و الكريمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صانعات قهوة بالكبس وأكواب حافظة للحرارة متنقلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,43458,6718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطقم أدوات المائدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطقم المائدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,43458,43797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات تقديم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,42916,43053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أطباق تقديم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,42918,42928,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات الشراب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42920,42935,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إكسسوارات الطاولة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مفارش الصحون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطاحن التوابل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,43458,42919,42924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحون طعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحون جانبية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,43458,42919,42926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أوعية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,42916,43742,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أوعية تقديم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,42916,42922,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحون حلى وحاملات كيك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,42916,42921,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صواني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42915,42916,42931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ألواح الجبن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلال تقديم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مفارش ومناديل مائدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شوايات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سلال النزهات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حقائب التبريد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42,14489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مرايا استشعار</t>
   </si>
   <si>
     <t xml:space="preserve">Don't scrap it </t>
   </si>
   <si>
-    <t>أدوات العناية الشخصية</t>
-  </si>
-  <si>
-    <t>37,39</t>
-  </si>
-  <si>
-    <t>مماسح أرجل</t>
-  </si>
-  <si>
-    <t>37,43777</t>
-  </si>
-  <si>
-    <t>صناديق مهملات</t>
-  </si>
-  <si>
-    <t>29,30,43811</t>
-  </si>
-  <si>
-    <t>أرفف صحون</t>
-  </si>
-  <si>
-    <t>37,38</t>
-  </si>
-  <si>
-    <t>موزع صابون</t>
-  </si>
-  <si>
-    <t>أدوات التنظيف والترتيب</t>
-  </si>
-  <si>
-    <t>أدوات الحمام</t>
-  </si>
-  <si>
-    <t>43804,113</t>
-  </si>
-  <si>
-    <t>أوعية الحيوانات الأليفة</t>
-  </si>
-  <si>
-    <t>مطرات وقوارير الماء</t>
-  </si>
-  <si>
-    <t>مجات حافظة للحرارة، برطمانات وأوعية متنقلة</t>
-  </si>
-  <si>
-    <t>علب وحقائب توضيب الطعام</t>
-  </si>
-  <si>
-    <t>سكاكين جيب</t>
+    <t xml:space="preserve">أدوات العناية الشخصية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مماسح أرجل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,43777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صناديق مهملات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,30,43811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أرفف صحون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">موزع صابون</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات التنظيف والترتيب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أدوات الحمام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43804,113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أوعية الحيوانات الأليفة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مطرات وقوارير الماء</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجات حافظة للحرارة، برطمانات وأوعية متنقلة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">علب وحقائب توضيب الطعام</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاكين جيب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utensil Sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الهالوين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الكريسماس</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحفلات وأعياد الميلاد</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+  </numFmts>
+  <fonts count="11">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
+      <b val="true"/>
+      <sz val="14"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -746,84 +800,84 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB4A7D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFFF95B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FFFFFF99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF95B6"/>
         <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4A7D6"/>
-        <bgColor rgb="FFB4A7D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF95B6"/>
-        <bgColor rgb="FFFF95B6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD5A6BD"/>
-        <bgColor rgb="FFD5A6BD"/>
+        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFC27BA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFEAD1DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC27BA0"/>
         <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
-        <bgColor rgb="FFC9DAF8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC27BA0"/>
-        <bgColor rgb="FFC27BA0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF79646"/>
-        <bgColor rgb="FFF79646"/>
+        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
-        <bgColor rgb="FF9BBB59"/>
+        <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
     <fill>
@@ -835,308 +889,242 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7CE1DF"/>
-        <bgColor rgb="FF7CE1DF"/>
+        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="15" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="16" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB7B7B7"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFD5A6BD"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFEAD1DC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFEA9999"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFC9DAF8"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFA4C2F4"/>
+      <rgbColor rgb="FFFF95B6"/>
+      <rgbColor rgb="FFB4A7D6"/>
+      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF7CE1DF"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFF79646"/>
+      <rgbColor rgb="FFE06666"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFC27BA0"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A184" activeCellId="0" sqref="A184"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="45.71"/>
-    <col customWidth="1" min="2" max="2" width="35.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.86"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +1156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1184,7 +1172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1200,7 +1188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1216,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1224,7 +1212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1232,7 +1220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1240,7 +1228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1264,7 +1252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1272,7 +1260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1268,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -1288,7 +1276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
@@ -1304,7 +1292,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>32</v>
       </c>
@@ -1312,7 +1300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
         <v>34</v>
       </c>
@@ -1320,7 +1308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
@@ -1328,7 +1316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -1336,7 +1324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
@@ -1344,7 +1332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
@@ -1352,7 +1340,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -1360,7 +1348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -1368,7 +1356,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -1376,7 +1364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -1384,7 +1372,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
@@ -1392,7 +1380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
@@ -1400,7 +1388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
@@ -1408,7 +1396,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
@@ -1416,7 +1404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
@@ -1424,7 +1412,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
         <v>52</v>
       </c>
@@ -1432,7 +1420,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
         <v>53</v>
       </c>
@@ -1440,7 +1428,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
         <v>54</v>
       </c>
@@ -1448,7 +1436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
         <v>55</v>
       </c>
@@ -1456,7 +1444,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
         <v>56</v>
       </c>
@@ -1464,7 +1452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
         <v>57</v>
       </c>
@@ -1472,7 +1460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
         <v>58</v>
       </c>
@@ -1480,7 +1468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
         <v>59</v>
       </c>
@@ -1488,7 +1476,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
         <v>61</v>
       </c>
@@ -1496,7 +1484,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="s">
         <v>62</v>
       </c>
@@ -1504,7 +1492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="9" t="s">
         <v>63</v>
       </c>
@@ -1512,7 +1500,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="s">
         <v>64</v>
       </c>
@@ -1520,7 +1508,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>65</v>
       </c>
@@ -1528,7 +1516,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
         <v>66</v>
       </c>
@@ -1536,7 +1524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
         <v>67</v>
       </c>
@@ -1544,7 +1532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
         <v>68</v>
       </c>
@@ -1552,7 +1540,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
         <v>69</v>
       </c>
@@ -1560,7 +1548,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
         <v>70</v>
       </c>
@@ -1568,7 +1556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
         <v>71</v>
       </c>
@@ -1576,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
         <v>72</v>
       </c>
@@ -1584,7 +1572,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
         <v>59</v>
       </c>
@@ -1592,7 +1580,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
         <v>73</v>
       </c>
@@ -1600,7 +1588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
         <v>74</v>
       </c>
@@ -1608,7 +1596,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
         <v>75</v>
       </c>
@@ -1616,7 +1604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11" t="s">
         <v>76</v>
       </c>
@@ -1624,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11" t="s">
         <v>77</v>
       </c>
@@ -1632,7 +1620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11" t="s">
         <v>78</v>
       </c>
@@ -1640,7 +1628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
         <v>79</v>
       </c>
@@ -1648,7 +1636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
         <v>80</v>
       </c>
@@ -1656,7 +1644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11" t="s">
         <v>81</v>
       </c>
@@ -1664,7 +1652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11" t="s">
         <v>82</v>
       </c>
@@ -1672,7 +1660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11" t="s">
         <v>83</v>
       </c>
@@ -1680,7 +1668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11" t="s">
         <v>84</v>
       </c>
@@ -1688,7 +1676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11" t="s">
         <v>85</v>
       </c>
@@ -1696,7 +1684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12" t="s">
         <v>86</v>
       </c>
@@ -1704,7 +1692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="12" t="s">
         <v>88</v>
       </c>
@@ -1712,7 +1700,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
         <v>89</v>
       </c>
@@ -1720,7 +1708,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="12" t="s">
         <v>90</v>
       </c>
@@ -1728,7 +1716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
         <v>91</v>
       </c>
@@ -1736,7 +1724,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
         <v>93</v>
       </c>
@@ -1744,7 +1732,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
         <v>94</v>
       </c>
@@ -1752,7 +1740,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
         <v>95</v>
       </c>
@@ -1760,7 +1748,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
         <v>96</v>
       </c>
@@ -1768,7 +1756,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="s">
         <v>98</v>
       </c>
@@ -1776,7 +1764,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="s">
         <v>99</v>
       </c>
@@ -1784,7 +1772,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="9" t="s">
         <v>100</v>
       </c>
@@ -1792,7 +1780,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="9" t="s">
         <v>102</v>
       </c>
@@ -1800,7 +1788,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="9" t="s">
         <v>103</v>
       </c>
@@ -1808,7 +1796,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="9" t="s">
         <v>104</v>
       </c>
@@ -1816,7 +1804,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="9" t="s">
         <v>105</v>
       </c>
@@ -1824,7 +1812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9" t="s">
         <v>106</v>
       </c>
@@ -1832,7 +1820,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="9" t="s">
         <v>107</v>
       </c>
@@ -1840,7 +1828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="9" t="s">
         <v>108</v>
       </c>
@@ -1848,7 +1836,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="9" t="s">
         <v>109</v>
       </c>
@@ -1856,7 +1844,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="9" t="s">
         <v>110</v>
       </c>
@@ -1864,7 +1852,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="9" t="s">
         <v>111</v>
       </c>
@@ -1872,7 +1860,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="9" t="s">
         <v>112</v>
       </c>
@@ -1880,7 +1868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="9" t="s">
         <v>113</v>
       </c>
@@ -1888,7 +1876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="9" t="s">
         <v>114</v>
       </c>
@@ -1896,7 +1884,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="9" t="s">
         <v>116</v>
       </c>
@@ -1904,7 +1892,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="9" t="s">
         <v>117</v>
       </c>
@@ -1912,7 +1900,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="9" t="s">
         <v>118</v>
       </c>
@@ -1920,7 +1908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="9" t="s">
         <v>119</v>
       </c>
@@ -1928,7 +1916,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="9" t="s">
         <v>121</v>
       </c>
@@ -1936,7 +1924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="9" t="s">
         <v>122</v>
       </c>
@@ -1944,7 +1932,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="9" t="s">
         <v>123</v>
       </c>
@@ -1952,7 +1940,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="9" t="s">
         <v>124</v>
       </c>
@@ -1960,7 +1948,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
         <v>125</v>
       </c>
@@ -1968,7 +1956,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="3" t="s">
         <v>126</v>
       </c>
@@ -1976,7 +1964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="3" t="s">
         <v>127</v>
       </c>
@@ -1984,7 +1972,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
         <v>128</v>
       </c>
@@ -1992,7 +1980,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="3" t="s">
         <v>129</v>
       </c>
@@ -2000,7 +1988,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="3" t="s">
         <v>130</v>
       </c>
@@ -2008,7 +1996,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="3" t="s">
         <v>131</v>
       </c>
@@ -2016,7 +2004,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
         <v>132</v>
       </c>
@@ -2024,7 +2012,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
         <v>133</v>
       </c>
@@ -2032,7 +2020,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="3" t="s">
         <v>134</v>
       </c>
@@ -2040,7 +2028,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="3" t="s">
         <v>135</v>
       </c>
@@ -2048,7 +2036,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="17" t="s">
         <v>136</v>
       </c>
@@ -2056,7 +2044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="17" t="s">
         <v>137</v>
       </c>
@@ -2064,7 +2052,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="17" t="s">
         <v>138</v>
       </c>
@@ -2072,7 +2060,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="17" t="s">
         <v>139</v>
       </c>
@@ -2080,7 +2068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="17" t="s">
         <v>140</v>
       </c>
@@ -2088,7 +2076,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="17" t="s">
         <v>141</v>
       </c>
@@ -2096,7 +2084,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="17" t="s">
         <v>142</v>
       </c>
@@ -2104,7 +2092,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="17" t="s">
         <v>143</v>
       </c>
@@ -2112,7 +2100,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="17" t="s">
         <v>144</v>
       </c>
@@ -2120,7 +2108,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="17" t="s">
         <v>145</v>
       </c>
@@ -2128,7 +2116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="18" t="s">
         <v>146</v>
       </c>
@@ -2136,7 +2124,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="18" t="s">
         <v>147</v>
       </c>
@@ -2144,7 +2132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="18" t="s">
         <v>148</v>
       </c>
@@ -2152,7 +2140,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="18" t="s">
         <v>149</v>
       </c>
@@ -2160,7 +2148,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="18" t="s">
         <v>150</v>
       </c>
@@ -2168,7 +2156,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="18" t="s">
         <v>151</v>
       </c>
@@ -2176,7 +2164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="18" t="s">
         <v>152</v>
       </c>
@@ -2184,7 +2172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="18" t="s">
         <v>153</v>
       </c>
@@ -2192,7 +2180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="18" t="s">
         <v>154</v>
       </c>
@@ -2200,7 +2188,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="18" t="s">
         <v>156</v>
       </c>
@@ -2208,7 +2196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="18" t="s">
         <v>157</v>
       </c>
@@ -2216,7 +2204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="18" t="s">
         <v>158</v>
       </c>
@@ -2224,7 +2212,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="18" t="s">
         <v>160</v>
       </c>
@@ -2232,7 +2220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="18" t="s">
         <v>161</v>
       </c>
@@ -2240,7 +2228,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="18" t="s">
         <v>163</v>
       </c>
@@ -2248,7 +2236,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="18" t="s">
         <v>165</v>
       </c>
@@ -2256,7 +2244,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="18" t="s">
         <v>166</v>
       </c>
@@ -2264,7 +2252,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="18" t="s">
         <v>167</v>
       </c>
@@ -2272,7 +2260,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="18" t="s">
         <v>169</v>
       </c>
@@ -2280,7 +2268,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="18" t="s">
         <v>170</v>
       </c>
@@ -2288,7 +2276,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="18" t="s">
         <v>172</v>
       </c>
@@ -2296,7 +2284,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="18" t="s">
         <v>174</v>
       </c>
@@ -2304,7 +2292,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="18" t="s">
         <v>175</v>
       </c>
@@ -2312,7 +2300,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="19" t="s">
         <v>177</v>
       </c>
@@ -2320,7 +2308,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="19" t="s">
         <v>178</v>
       </c>
@@ -2328,7 +2316,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="19" t="s">
         <v>180</v>
       </c>
@@ -2336,7 +2324,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="19" t="s">
         <v>182</v>
       </c>
@@ -2344,7 +2332,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="19" t="s">
         <v>184</v>
       </c>
@@ -2352,7 +2340,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="19" t="s">
         <v>186</v>
       </c>
@@ -2360,7 +2348,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="19" t="s">
         <v>187</v>
       </c>
@@ -2368,7 +2356,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="19" t="s">
         <v>188</v>
       </c>
@@ -2376,7 +2364,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="19" t="s">
         <v>190</v>
       </c>
@@ -2384,7 +2372,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="19" t="s">
         <v>191</v>
       </c>
@@ -2392,7 +2380,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="19" t="s">
         <v>193</v>
       </c>
@@ -2400,7 +2388,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="19" t="s">
         <v>195</v>
       </c>
@@ -2408,7 +2396,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="19" t="s">
         <v>197</v>
       </c>
@@ -2416,7 +2404,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="19" t="s">
         <v>199</v>
       </c>
@@ -2424,7 +2412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="19" t="s">
         <v>201</v>
       </c>
@@ -2432,7 +2420,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="19" t="s">
         <v>202</v>
       </c>
@@ -2440,7 +2428,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="19" t="s">
         <v>203</v>
       </c>
@@ -2448,7 +2436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="19" t="s">
         <v>204</v>
       </c>
@@ -2456,7 +2444,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="19" t="s">
         <v>205</v>
       </c>
@@ -2464,7 +2452,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="19" t="s">
         <v>206</v>
       </c>
@@ -2472,7 +2460,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="20" t="s">
         <v>208</v>
       </c>
@@ -2480,7 +2468,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="19" t="s">
         <v>210</v>
       </c>
@@ -2488,7 +2476,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="19" t="s">
         <v>212</v>
       </c>
@@ -2496,7 +2484,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="19" t="s">
         <v>214</v>
       </c>
@@ -2504,7 +2492,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="19" t="s">
         <v>216</v>
       </c>
@@ -2512,7 +2500,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="19" t="s">
         <v>218</v>
       </c>
@@ -2520,7 +2508,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="19" t="s">
         <v>219</v>
       </c>
@@ -2528,7 +2516,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="19" t="s">
         <v>220</v>
       </c>
@@ -2536,7 +2524,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="19" t="s">
         <v>222</v>
       </c>
@@ -2544,7 +2532,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="23" t="s">
         <v>223</v>
       </c>
@@ -2552,7 +2540,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="23" t="s">
         <v>224</v>
       </c>
@@ -2560,7 +2548,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="23" t="s">
         <v>225</v>
       </c>
@@ -2568,7 +2556,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="23" t="s">
         <v>226</v>
       </c>
@@ -2576,7 +2564,33 @@
         <v>47</v>
       </c>
     </row>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="24" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>